--- a/biology/Biochimie/PD-L1/PD-L1.xlsx
+++ b/biology/Biochimie/PD-L1/PD-L1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">PD-L1 (pour « Programmed death-ligand 1 » ), ou CD274 (pour « cluster de différenciation 274 »), ou B7H1 (pour « B7 homolog 1 ») est une protéine dont le gène est CD274 situé sur le chromosome 9 humain.
 PD-L1 a connu une forte popularité après la découverte de son rôle en immunothérapie.
@@ -512,10 +524,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'état normal, PD-L1 n'est exprimé qu'à la surface des macrophages et particulièrement des macrophages associés aux tumeurs. Il se lie au récepteur PD1 et module l'activation ou l'inhibition des cellules du système immunitaire.
-Il est également exprimé à la surface de plusieurs cellules cancéreuses. Son expression est augmentée par l'interféron gamma. Il empêche l'apoptose des cellules porteuses[5].
+Il est également exprimé à la surface de plusieurs cellules cancéreuses. Son expression est augmentée par l'interféron gamma. Il empêche l'apoptose des cellules porteuses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Intérêt thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atezolizumab et le durvalumab sont des anticorps monoclonaux ciblant le PD-L1 et en cours d'évaluation contre certains cancers. D'autres anticorps monoclonaux sont dirigés contre son récepteur PD-1[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atezolizumab et le durvalumab sont des anticorps monoclonaux ciblant le PD-L1 et en cours d'évaluation contre certains cancers. D'autres anticorps monoclonaux sont dirigés contre son récepteur PD-1.
 </t>
         </is>
       </c>
